--- a/verification.xlsx
+++ b/verification.xlsx
@@ -1,47 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samcarigliano/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAABFBC0-5E8B-A84F-A24F-EE6173FEC98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{C81B8506-A000-FD43-8192-6D82788CB08E}"/>
+    <workbookView windowWidth="27960" windowHeight="12525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Files" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="30">
+  <si>
+    <t>Third Party / Manual</t>
+  </si>
+  <si>
+    <t>SkyCiv</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
   <si>
     <t>Test File Name</t>
   </si>
   <si>
-    <t>0001_AISC_Handbook</t>
+    <t>Test File</t>
+  </si>
+  <si>
+    <t>Shear Capacity (kN)</t>
   </si>
   <si>
     <t>Moment Capacity</t>
@@ -53,34 +44,85 @@
     <t>Tension</t>
   </si>
   <si>
-    <t>Third Party / Manual</t>
-  </si>
-  <si>
-    <t>SkyCiv</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>Test File</t>
+    <t>0001_AISC_Handbook</t>
   </si>
   <si>
     <t>{"Ly":272,"Lz":272,"shape":"hollow rectangular","legs":2,"b":38.5,"d":80,"t1":3.5,"t2":3.5,"welded":"Yes","alloy":"6005","temper":"T5","Mz":0,"My":0,"Vy":100,"Vz":60,"Nc":0,"Nt":0,"project_details":{"units":{"project_units":""},"project_company":"","project_name":"","project_designer":"","project_id":"","project_client":"","project_notes":""}}</t>
   </si>
   <si>
-    <t>Shear Capacity (kN)</t>
+    <t>Darwin et al.</t>
+  </si>
+  <si>
+    <t>ACI Detailing Manual</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>rebar</t>
+  </si>
+  <si>
+    <t>fy</t>
+  </si>
+  <si>
+    <t>fc</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>ldc</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>ldh</t>
+  </si>
+  <si>
+    <t>ld_bottom</t>
+  </si>
+  <si>
+    <t>difference_darwin</t>
+  </si>
+  <si>
+    <t>difference_aci</t>
+  </si>
+  <si>
+    <t>ld_top_darwin</t>
+  </si>
+  <si>
+    <t>ld_top</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>case_a</t>
+  </si>
+  <si>
+    <t>other_cases</t>
+  </si>
+  <si>
+    <t>#8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -88,7 +130,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,11 +138,162 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,24 +302,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -136,54 +515,341 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349986266670736"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349986266670736"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349986266670736"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.349986266670736"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -232,7 +898,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -265,26 +931,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -317,23 +966,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,120 +1107,115 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5D1A6F-75A2-D744-B985-988B71E61DAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="15" style="10" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="18" style="11" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" style="11" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="33.3333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.5037037037037" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.5037037037037" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.8296296296296" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.162962962963" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.6666666666667" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.6666666666667" style="4" customWidth="1"/>
+    <col min="11" max="11" width="18" style="5" customWidth="1"/>
+    <col min="12" max="12" width="19.162962962963" style="5" customWidth="1"/>
+    <col min="13" max="14" width="10.8296296296296" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="3:14">
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="7" t="str">
+      <c r="G2" s="10" t="str">
         <f>C2</f>
         <v>Shear Capacity (kN)</v>
       </c>
-      <c r="H2" s="7" t="str">
-        <f t="shared" ref="H2:J2" si="0">D2</f>
+      <c r="H2" s="10" t="str">
+        <f t="shared" ref="H2:K2" si="0">D2</f>
         <v>Moment Capacity</v>
       </c>
-      <c r="I2" s="7" t="str">
+      <c r="I2" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Compression</v>
       </c>
-      <c r="J2" s="7" t="str">
+      <c r="J2" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Tension</v>
       </c>
-      <c r="K2" s="8" t="str">
-        <f>G2</f>
+      <c r="K2" s="12" t="str">
+        <f t="shared" si="0"/>
         <v>Shear Capacity (kN)</v>
       </c>
-      <c r="L2" s="8" t="str">
+      <c r="L2" s="12" t="str">
         <f t="shared" ref="L2" si="1">H2</f>
         <v>Moment Capacity</v>
       </c>
-      <c r="M2" s="8" t="str">
+      <c r="M2" s="12" t="str">
         <f t="shared" ref="M2" si="2">I2</f>
         <v>Compression</v>
       </c>
-      <c r="N2" s="8" t="str">
+      <c r="N2" s="12" t="str">
         <f t="shared" ref="N2" si="3">J2</f>
         <v>Tension</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
         <v>123</v>
       </c>
     </row>
@@ -599,5 +1226,2821 @@
     <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.33333333333333" customWidth="1"/>
+    <col min="2" max="2" width="5.33333333333333" customWidth="1"/>
+    <col min="3" max="3" width="7.22222222222222" customWidth="1"/>
+    <col min="4" max="4" width="5.22222222222222" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="6.88888888888889" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="6.88888888888889" customWidth="1"/>
+    <col min="12" max="12" width="11.2222222222222" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="15.8888888888889" customWidth="1"/>
+    <col min="16" max="16" width="12.5555555555556" customWidth="1"/>
+    <col min="17" max="17" width="12.7777777777778" customWidth="1"/>
+    <col min="18" max="18" width="6.88888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:18">
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1"/>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>40000</v>
+      </c>
+      <c r="D3">
+        <v>4000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1">
+        <v>20</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3">
+        <v>24.75</v>
+      </c>
+      <c r="R3">
+        <v>25</v>
+      </c>
+      <c r="S3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>60000</v>
+      </c>
+      <c r="D4">
+        <v>4000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>9.7</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>0.3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>29</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q4">
+        <v>37.5</v>
+      </c>
+      <c r="R4">
+        <v>38</v>
+      </c>
+      <c r="S4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>80000</v>
+      </c>
+      <c r="D5">
+        <v>4000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>12.9</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>44.25</v>
+      </c>
+      <c r="M5" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>45</v>
+      </c>
+      <c r="O5" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="Q5">
+        <v>57</v>
+      </c>
+      <c r="R5">
+        <v>57</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>100000</v>
+      </c>
+      <c r="D6">
+        <v>4000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6">
+        <v>16.2</v>
+      </c>
+      <c r="J6">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>0.8</v>
+      </c>
+      <c r="L6" s="1">
+        <v>62.25</v>
+      </c>
+      <c r="M6" s="1">
+        <v>61.5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>63</v>
+      </c>
+      <c r="O6" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="Q6">
+        <v>80.25</v>
+      </c>
+      <c r="R6">
+        <v>81</v>
+      </c>
+      <c r="S6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>40000</v>
+      </c>
+      <c r="D7">
+        <v>4000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <v>29</v>
+      </c>
+      <c r="O7" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7">
+        <v>37.5</v>
+      </c>
+      <c r="R7">
+        <v>38</v>
+      </c>
+      <c r="S7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>60000</v>
+      </c>
+      <c r="D8">
+        <v>4000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>9.7</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>42.75</v>
+      </c>
+      <c r="M8" s="1">
+        <v>42.75</v>
+      </c>
+      <c r="N8" s="1">
+        <v>43</v>
+      </c>
+      <c r="O8" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q8">
+        <v>55.5</v>
+      </c>
+      <c r="R8">
+        <v>56</v>
+      </c>
+      <c r="S8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>80000</v>
+      </c>
+      <c r="D9">
+        <v>4000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>12.9</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>66</v>
+      </c>
+      <c r="M9" s="1">
+        <v>65.25</v>
+      </c>
+      <c r="N9" s="1">
+        <v>66</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q9">
+        <v>85.5</v>
+      </c>
+      <c r="R9">
+        <v>86</v>
+      </c>
+      <c r="S9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>100000</v>
+      </c>
+      <c r="D10">
+        <v>4000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10">
+        <v>16.2</v>
+      </c>
+      <c r="J10">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="1">
+        <v>93</v>
+      </c>
+      <c r="M10" s="1">
+        <v>92.25</v>
+      </c>
+      <c r="N10" s="1">
+        <v>93</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q10">
+        <v>120.75</v>
+      </c>
+      <c r="R10">
+        <v>121</v>
+      </c>
+      <c r="S10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>40000</v>
+      </c>
+      <c r="D11">
+        <v>5000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11" s="1">
+        <v>17.25</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1">
+        <v>18</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11">
+        <v>22.5</v>
+      </c>
+      <c r="R11">
+        <v>23</v>
+      </c>
+      <c r="S11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>60000</v>
+      </c>
+      <c r="D12">
+        <v>5000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>9.4</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>0.6</v>
+      </c>
+      <c r="L12" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>26</v>
+      </c>
+      <c r="O12" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q12">
+        <v>33.75</v>
+      </c>
+      <c r="R12">
+        <v>34</v>
+      </c>
+      <c r="S12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>80000</v>
+      </c>
+      <c r="D13">
+        <v>5000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>11.6</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <v>1.4</v>
+      </c>
+      <c r="L13" s="1">
+        <v>39.75</v>
+      </c>
+      <c r="M13" s="1">
+        <v>39</v>
+      </c>
+      <c r="N13" s="1">
+        <v>40</v>
+      </c>
+      <c r="O13" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>51</v>
+      </c>
+      <c r="R13">
+        <v>51</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>100000</v>
+      </c>
+      <c r="D14">
+        <v>5000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>23</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14">
+        <v>15.6</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>0.4</v>
+      </c>
+      <c r="L14" s="1">
+        <v>55.5</v>
+      </c>
+      <c r="M14" s="1">
+        <v>55.5</v>
+      </c>
+      <c r="N14" s="1">
+        <v>56</v>
+      </c>
+      <c r="O14" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q14">
+        <v>72</v>
+      </c>
+      <c r="R14">
+        <v>72</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>40000</v>
+      </c>
+      <c r="D15">
+        <v>5000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15">
+        <v>7</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
+        <v>26</v>
+      </c>
+      <c r="O15" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15">
+        <v>33.75</v>
+      </c>
+      <c r="R15">
+        <v>34</v>
+      </c>
+      <c r="S15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>60000</v>
+      </c>
+      <c r="D16">
+        <v>5000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>9.4</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>0.6</v>
+      </c>
+      <c r="L16" s="1">
+        <v>38.25</v>
+      </c>
+      <c r="M16" s="1">
+        <v>38.25</v>
+      </c>
+      <c r="N16" s="1">
+        <v>39</v>
+      </c>
+      <c r="O16" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q16">
+        <v>50.25</v>
+      </c>
+      <c r="R16">
+        <v>51</v>
+      </c>
+      <c r="S16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>80000</v>
+      </c>
+      <c r="D17">
+        <v>5000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1">
+        <v>18</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>11.6</v>
+      </c>
+      <c r="J17">
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <v>1.4</v>
+      </c>
+      <c r="L17" s="1">
+        <v>59.25</v>
+      </c>
+      <c r="M17" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>60</v>
+      </c>
+      <c r="O17" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="Q17">
+        <v>76.5</v>
+      </c>
+      <c r="R17">
+        <v>77</v>
+      </c>
+      <c r="S17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>100000</v>
+      </c>
+      <c r="D18">
+        <v>5000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18">
+        <v>15.6</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>0.4</v>
+      </c>
+      <c r="L18" s="1">
+        <v>83.25</v>
+      </c>
+      <c r="M18" s="1">
+        <v>82.5</v>
+      </c>
+      <c r="N18" s="1">
+        <v>84</v>
+      </c>
+      <c r="O18" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="Q18">
+        <v>108</v>
+      </c>
+      <c r="R18">
+        <v>108</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>40000</v>
+      </c>
+      <c r="D19">
+        <v>6000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1">
+        <v>9</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19" s="1">
+        <v>15.75</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1">
+        <v>16</v>
+      </c>
+      <c r="O19" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19">
+        <v>20.25</v>
+      </c>
+      <c r="R19">
+        <v>21</v>
+      </c>
+      <c r="S19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>60000</v>
+      </c>
+      <c r="D20">
+        <v>6000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>9.1</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>0.9</v>
+      </c>
+      <c r="L20" s="1">
+        <v>23.25</v>
+      </c>
+      <c r="M20" s="1">
+        <v>23.25</v>
+      </c>
+      <c r="N20" s="1">
+        <v>24</v>
+      </c>
+      <c r="O20" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q20">
+        <v>30.75</v>
+      </c>
+      <c r="R20">
+        <v>31</v>
+      </c>
+      <c r="S20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>80000</v>
+      </c>
+      <c r="D21">
+        <v>6000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1">
+        <v>18</v>
+      </c>
+      <c r="G21" s="1">
+        <v>18</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>12.2</v>
+      </c>
+      <c r="J21">
+        <v>13</v>
+      </c>
+      <c r="K21">
+        <v>0.8</v>
+      </c>
+      <c r="L21" s="1">
+        <v>36</v>
+      </c>
+      <c r="M21" s="1">
+        <v>36</v>
+      </c>
+      <c r="N21" s="1">
+        <v>36</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>46.5</v>
+      </c>
+      <c r="R21">
+        <v>47</v>
+      </c>
+      <c r="S21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>100000</v>
+      </c>
+      <c r="D22">
+        <v>6000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>23</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22">
+        <v>15.2</v>
+      </c>
+      <c r="J22">
+        <v>16</v>
+      </c>
+      <c r="K22">
+        <v>0.8</v>
+      </c>
+      <c r="L22" s="1">
+        <v>51</v>
+      </c>
+      <c r="M22" s="1">
+        <v>50.25</v>
+      </c>
+      <c r="N22" s="1">
+        <v>51</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q22">
+        <v>66</v>
+      </c>
+      <c r="R22">
+        <v>66</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>40000</v>
+      </c>
+      <c r="D23">
+        <v>6000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1">
+        <v>9</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23" s="1">
+        <v>23.25</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1">
+        <v>24</v>
+      </c>
+      <c r="O23" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23">
+        <v>30.75</v>
+      </c>
+      <c r="R23">
+        <v>31</v>
+      </c>
+      <c r="S23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>60000</v>
+      </c>
+      <c r="D24">
+        <v>6000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="1">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>9.1</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>0.9</v>
+      </c>
+      <c r="L24" s="1">
+        <v>35.25</v>
+      </c>
+      <c r="M24" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="N24" s="1">
+        <v>36</v>
+      </c>
+      <c r="O24" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="Q24">
+        <v>45.75</v>
+      </c>
+      <c r="R24">
+        <v>46</v>
+      </c>
+      <c r="S24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1">
+        <v>80000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="1">
+        <v>18</v>
+      </c>
+      <c r="G25" s="1">
+        <v>18</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>13</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L25" s="1">
+        <v>54</v>
+      </c>
+      <c r="M25" s="1">
+        <v>53.25</v>
+      </c>
+      <c r="N25" s="1">
+        <v>54</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>69.75</v>
+      </c>
+      <c r="R25" s="1">
+        <v>70</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>100000</v>
+      </c>
+      <c r="D26">
+        <v>6000</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <v>23</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26">
+        <v>15.2</v>
+      </c>
+      <c r="J26">
+        <v>16</v>
+      </c>
+      <c r="K26">
+        <v>0.8</v>
+      </c>
+      <c r="L26" s="1">
+        <v>75.75</v>
+      </c>
+      <c r="M26" s="1">
+        <v>75.75</v>
+      </c>
+      <c r="N26" s="1">
+        <v>76</v>
+      </c>
+      <c r="O26" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q26">
+        <v>98.25</v>
+      </c>
+      <c r="R26">
+        <v>99</v>
+      </c>
+      <c r="S26">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>40000</v>
+      </c>
+      <c r="D27">
+        <v>4000</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="1">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27" s="1">
+        <v>32</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1">
+        <v>32</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27">
+        <v>42</v>
+      </c>
+      <c r="R27">
+        <v>42</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>60000</v>
+      </c>
+      <c r="D28">
+        <v>4000</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1">
+        <v>19</v>
+      </c>
+      <c r="G28" s="1">
+        <v>19</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>14.9</v>
+      </c>
+      <c r="J28">
+        <v>15</v>
+      </c>
+      <c r="K28">
+        <v>0.1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>48</v>
+      </c>
+      <c r="M28" s="1">
+        <v>47</v>
+      </c>
+      <c r="N28" s="1">
+        <v>48</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>62</v>
+      </c>
+      <c r="R28">
+        <v>62</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>80000</v>
+      </c>
+      <c r="D29">
+        <v>4000</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="1">
+        <v>26</v>
+      </c>
+      <c r="G29" s="1">
+        <v>26</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>19.9</v>
+      </c>
+      <c r="J29">
+        <v>20</v>
+      </c>
+      <c r="K29">
+        <v>0.1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>73</v>
+      </c>
+      <c r="M29" s="1">
+        <v>73</v>
+      </c>
+      <c r="N29" s="1">
+        <v>73</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>95</v>
+      </c>
+      <c r="R29">
+        <v>95</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>100000</v>
+      </c>
+      <c r="D30">
+        <v>4000</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
+        <v>32</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30">
+        <v>24.9</v>
+      </c>
+      <c r="J30">
+        <v>25</v>
+      </c>
+      <c r="K30">
+        <v>0.1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>103</v>
+      </c>
+      <c r="M30" s="1">
+        <v>103</v>
+      </c>
+      <c r="N30" s="1">
+        <v>103</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>134</v>
+      </c>
+      <c r="R30">
+        <v>134</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>40000</v>
+      </c>
+      <c r="D31">
+        <v>4000</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31"/>
+      <c r="L31" s="1">
+        <v>48</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1">
+        <v>48</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31">
+        <v>62</v>
+      </c>
+      <c r="R31">
+        <v>62</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>60000</v>
+      </c>
+      <c r="D32">
+        <v>4000</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="1">
+        <v>19</v>
+      </c>
+      <c r="G32" s="1">
+        <v>19</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>14.9</v>
+      </c>
+      <c r="J32">
+        <v>15</v>
+      </c>
+      <c r="K32">
+        <v>0.1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>72</v>
+      </c>
+      <c r="M32" s="1">
+        <v>71</v>
+      </c>
+      <c r="N32" s="1">
+        <v>72</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>93</v>
+      </c>
+      <c r="R32">
+        <v>93</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <v>80000</v>
+      </c>
+      <c r="D33">
+        <v>4000</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="1">
+        <v>26</v>
+      </c>
+      <c r="G33" s="1">
+        <v>26</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>19.9</v>
+      </c>
+      <c r="J33">
+        <v>20</v>
+      </c>
+      <c r="K33">
+        <v>0.1</v>
+      </c>
+      <c r="L33" s="1">
+        <v>110</v>
+      </c>
+      <c r="M33" s="1">
+        <v>109</v>
+      </c>
+      <c r="N33" s="1">
+        <v>110</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>142</v>
+      </c>
+      <c r="R33">
+        <v>142</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>100000</v>
+      </c>
+      <c r="D34">
+        <v>4000</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1">
+        <v>32</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34">
+        <v>24.9</v>
+      </c>
+      <c r="J34">
+        <v>25</v>
+      </c>
+      <c r="K34">
+        <v>0.1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>155</v>
+      </c>
+      <c r="M34" s="1">
+        <v>154</v>
+      </c>
+      <c r="N34" s="1">
+        <v>155</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>201</v>
+      </c>
+      <c r="R34">
+        <v>201</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>40000</v>
+      </c>
+      <c r="D35">
+        <v>5000</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="1">
+        <v>12</v>
+      </c>
+      <c r="G35" s="1">
+        <v>12</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35"/>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35"/>
+      <c r="L35" s="1">
+        <v>29</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1">
+        <v>29</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1"/>
+      <c r="Q35">
+        <v>37</v>
+      </c>
+      <c r="R35">
+        <v>37</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>60000</v>
+      </c>
+      <c r="D36">
+        <v>5000</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="1">
+        <v>18</v>
+      </c>
+      <c r="G36" s="1">
+        <v>18</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>14.4</v>
+      </c>
+      <c r="J36">
+        <v>15</v>
+      </c>
+      <c r="K36">
+        <v>0.6</v>
+      </c>
+      <c r="L36" s="1">
+        <v>43</v>
+      </c>
+      <c r="M36" s="1">
+        <v>42</v>
+      </c>
+      <c r="N36" s="1">
+        <v>43</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>56</v>
+      </c>
+      <c r="R36">
+        <v>56</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37">
+        <v>80000</v>
+      </c>
+      <c r="D37">
+        <v>5000</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="1">
+        <v>24</v>
+      </c>
+      <c r="G37" s="1">
+        <v>24</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>17.8</v>
+      </c>
+      <c r="J37">
+        <v>20</v>
+      </c>
+      <c r="K37">
+        <v>2.2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>66</v>
+      </c>
+      <c r="M37" s="1">
+        <v>65</v>
+      </c>
+      <c r="N37" s="1">
+        <v>66</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>85</v>
+      </c>
+      <c r="R37">
+        <v>85</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38">
+        <v>100000</v>
+      </c>
+      <c r="D38">
+        <v>5000</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1">
+        <v>30</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38">
+        <v>24</v>
+      </c>
+      <c r="J38">
+        <v>24</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>92</v>
+      </c>
+      <c r="M38" s="1">
+        <v>92</v>
+      </c>
+      <c r="N38" s="1">
+        <v>92</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>120</v>
+      </c>
+      <c r="R38">
+        <v>120</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <v>40000</v>
+      </c>
+      <c r="D39">
+        <v>5000</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="1">
+        <v>12</v>
+      </c>
+      <c r="G39" s="1">
+        <v>12</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39"/>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39"/>
+      <c r="L39" s="1">
+        <v>43</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1">
+        <v>43</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39">
+        <v>56</v>
+      </c>
+      <c r="R39">
+        <v>56</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40">
+        <v>60000</v>
+      </c>
+      <c r="D40">
+        <v>5000</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="1">
+        <v>18</v>
+      </c>
+      <c r="G40" s="1">
+        <v>18</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>14.4</v>
+      </c>
+      <c r="J40">
+        <v>15</v>
+      </c>
+      <c r="K40">
+        <v>0.6</v>
+      </c>
+      <c r="L40" s="1">
+        <v>64</v>
+      </c>
+      <c r="M40" s="1">
+        <v>64</v>
+      </c>
+      <c r="N40" s="1">
+        <v>64</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>83</v>
+      </c>
+      <c r="R40">
+        <v>83</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41">
+        <v>80000</v>
+      </c>
+      <c r="D41">
+        <v>5000</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="1">
+        <v>24</v>
+      </c>
+      <c r="G41" s="1">
+        <v>24</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>17.8</v>
+      </c>
+      <c r="J41">
+        <v>20</v>
+      </c>
+      <c r="K41">
+        <v>2.2</v>
+      </c>
+      <c r="L41" s="1">
+        <v>98</v>
+      </c>
+      <c r="M41" s="1">
+        <v>98</v>
+      </c>
+      <c r="N41" s="1">
+        <v>98</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>127</v>
+      </c>
+      <c r="R41">
+        <v>127</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42">
+        <v>100000</v>
+      </c>
+      <c r="D42">
+        <v>5000</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1">
+        <v>30</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42">
+        <v>24</v>
+      </c>
+      <c r="J42">
+        <v>24</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>138</v>
+      </c>
+      <c r="M42" s="1">
+        <v>138</v>
+      </c>
+      <c r="N42" s="1">
+        <v>138</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>180</v>
+      </c>
+      <c r="R42">
+        <v>180</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <v>40000</v>
+      </c>
+      <c r="D43">
+        <v>6000</v>
+      </c>
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="1">
+        <v>12</v>
+      </c>
+      <c r="G43" s="1">
+        <v>12</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43"/>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43"/>
+      <c r="L43" s="1">
+        <v>26</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1">
+        <v>26</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1"/>
+      <c r="Q43">
+        <v>34</v>
+      </c>
+      <c r="R43">
+        <v>34</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44">
+        <v>60000</v>
+      </c>
+      <c r="D44">
+        <v>6000</v>
+      </c>
+      <c r="E44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="1">
+        <v>18</v>
+      </c>
+      <c r="G44" s="1">
+        <v>18</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>14.1</v>
+      </c>
+      <c r="J44">
+        <v>15</v>
+      </c>
+      <c r="K44">
+        <v>0.9</v>
+      </c>
+      <c r="L44" s="1">
+        <v>39</v>
+      </c>
+      <c r="M44" s="1">
+        <v>39</v>
+      </c>
+      <c r="N44" s="1">
+        <v>39</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>51</v>
+      </c>
+      <c r="R44">
+        <v>51</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45">
+        <v>80000</v>
+      </c>
+      <c r="D45">
+        <v>6000</v>
+      </c>
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="1">
+        <v>24</v>
+      </c>
+      <c r="G45" s="1">
+        <v>24</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>18.8</v>
+      </c>
+      <c r="J45">
+        <v>19</v>
+      </c>
+      <c r="K45">
+        <v>0.2</v>
+      </c>
+      <c r="L45" s="1">
+        <v>60</v>
+      </c>
+      <c r="M45" s="1">
+        <v>59</v>
+      </c>
+      <c r="N45" s="1">
+        <v>60</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>78</v>
+      </c>
+      <c r="R45">
+        <v>78</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <v>100000</v>
+      </c>
+      <c r="D46">
+        <v>6000</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1">
+        <v>30</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46">
+        <v>23.5</v>
+      </c>
+      <c r="J46">
+        <v>24</v>
+      </c>
+      <c r="K46">
+        <v>0.5</v>
+      </c>
+      <c r="L46" s="1">
+        <v>84</v>
+      </c>
+      <c r="M46" s="1">
+        <v>84</v>
+      </c>
+      <c r="N46" s="1">
+        <v>84</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>110</v>
+      </c>
+      <c r="R46">
+        <v>110</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47">
+        <v>40000</v>
+      </c>
+      <c r="D47">
+        <v>6000</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="1">
+        <v>12</v>
+      </c>
+      <c r="G47" s="1">
+        <v>12</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47"/>
+      <c r="J47">
+        <v>10</v>
+      </c>
+      <c r="K47"/>
+      <c r="L47" s="1">
+        <v>39</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1">
+        <v>39</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47">
+        <v>51</v>
+      </c>
+      <c r="R47">
+        <v>51</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48">
+        <v>60000</v>
+      </c>
+      <c r="D48">
+        <v>6000</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="1">
+        <v>18</v>
+      </c>
+      <c r="G48" s="1">
+        <v>18</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>14.1</v>
+      </c>
+      <c r="J48">
+        <v>15</v>
+      </c>
+      <c r="K48">
+        <v>0.9</v>
+      </c>
+      <c r="L48" s="1">
+        <v>59</v>
+      </c>
+      <c r="M48" s="1">
+        <v>58</v>
+      </c>
+      <c r="N48" s="1">
+        <v>59</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>76</v>
+      </c>
+      <c r="R48">
+        <v>76</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49">
+        <v>80000</v>
+      </c>
+      <c r="D49">
+        <v>6000</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="1">
+        <v>24</v>
+      </c>
+      <c r="G49" s="1">
+        <v>24</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>18.8</v>
+      </c>
+      <c r="J49">
+        <v>19</v>
+      </c>
+      <c r="K49">
+        <v>0.2</v>
+      </c>
+      <c r="L49" s="1">
+        <v>90</v>
+      </c>
+      <c r="M49" s="1">
+        <v>89</v>
+      </c>
+      <c r="N49" s="1">
+        <v>90</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>116</v>
+      </c>
+      <c r="R49">
+        <v>116</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50">
+        <v>100000</v>
+      </c>
+      <c r="D50">
+        <v>6000</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1">
+        <v>30</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50">
+        <v>23.5</v>
+      </c>
+      <c r="J50">
+        <v>24</v>
+      </c>
+      <c r="K50">
+        <v>0.5</v>
+      </c>
+      <c r="L50" s="1">
+        <v>126</v>
+      </c>
+      <c r="M50" s="1">
+        <v>126</v>
+      </c>
+      <c r="N50" s="1">
+        <v>126</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>164</v>
+      </c>
+      <c r="R50">
+        <v>164</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>